--- a/DataSheet/Mars.xlsx
+++ b/DataSheet/Mars.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyotimadan/Documents/Projects/CSharpProject/Mars/DataSheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyotimadan/Documents/Projects/CSharpProject/Mars.Nunit/DataSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452DBA3E-A3F8-9441-B2A5-1C83041BBC35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B388A7B-DBF9-B845-9CA8-BD3DE1085139}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="540" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{DF65A25B-7158-E041-B64A-E7FDC7345767}"/>
+    <workbookView xWindow="300" yWindow="520" windowWidth="28040" windowHeight="16280" activeTab="6" xr2:uid="{DF65A25B-7158-E041-B64A-E7FDC7345767}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
   <si>
     <t>Password</t>
   </si>
@@ -318,9 +318,6 @@
     <t>Education has been added</t>
   </si>
   <si>
-    <t>SearchSkill</t>
-  </si>
-  <si>
     <t>ChatMessage</t>
   </si>
   <si>
@@ -376,6 +373,30 @@
   </si>
   <si>
     <t>Pwd</t>
+  </si>
+  <si>
+    <t>Skill3</t>
+  </si>
+  <si>
+    <t>Skill4</t>
+  </si>
+  <si>
+    <t>SearchSkillToAccept</t>
+  </si>
+  <si>
+    <t>SearchSkillToWithdraw</t>
+  </si>
+  <si>
+    <t>SearchSkillToComplete</t>
+  </si>
+  <si>
+    <t>SearchSkillToDecline</t>
+  </si>
+  <si>
+    <t>Skill5</t>
+  </si>
+  <si>
+    <t>Skill6</t>
   </si>
 </sst>
 </file>
@@ -834,12 +855,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -851,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDD637B-99C7-7B42-BAE6-F88E174063E1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -867,10 +888,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
@@ -887,7 +908,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>123123</v>
@@ -1133,7 +1154,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1146,30 +1167,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
         <v>103</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>105</v>
-      </c>
-      <c r="D2" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1322,29 +1343,51 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABAFBA3-8E38-1348-967F-3A970261E0D5}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1363,12 +1406,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1392,18 +1435,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/Mars.xlsx
+++ b/DataSheet/Mars.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyotimadan/Documents/Projects/CSharpProject/Mars.Nunit/DataSheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyotimadan/Documents/Projects/CSharpProject/Mars.Selenium/DataSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B388A7B-DBF9-B845-9CA8-BD3DE1085139}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB681981-EA9D-FA45-8539-03D49AE7F488}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="520" windowWidth="28040" windowHeight="16280" activeTab="6" xr2:uid="{DF65A25B-7158-E041-B64A-E7FDC7345767}"/>
+    <workbookView xWindow="300" yWindow="520" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{DF65A25B-7158-E041-B64A-E7FDC7345767}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
   <si>
     <t>Password</t>
   </si>
@@ -72,135 +72,309 @@
     <t>Active</t>
   </si>
   <si>
+    <t>Test Skill1 Sharing</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Tag1</t>
+  </si>
+  <si>
+    <t>One-off service</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Tag2</t>
+  </si>
+  <si>
+    <t>EditTitle</t>
+  </si>
+  <si>
+    <t>EditDescription</t>
+  </si>
+  <si>
+    <t>EditCategory</t>
+  </si>
+  <si>
+    <t>EditTags</t>
+  </si>
+  <si>
+    <t>EditServiceType</t>
+  </si>
+  <si>
+    <t>EditLocationType</t>
+  </si>
+  <si>
+    <t>EditSkillTrade</t>
+  </si>
+  <si>
+    <t>EditSkillExchangeTag</t>
+  </si>
+  <si>
+    <t>EditCreditServiceCharge</t>
+  </si>
+  <si>
+    <t>EditActive</t>
+  </si>
+  <si>
+    <t>DeleteMessage</t>
+  </si>
+  <si>
+    <t>Skill2</t>
+  </si>
+  <si>
+    <t>Test Skill2 Sharing</t>
+  </si>
+  <si>
+    <t>Fun &amp; Lifestyle</t>
+  </si>
+  <si>
+    <t>Tag3</t>
+  </si>
+  <si>
+    <t>Hourly basis service</t>
+  </si>
+  <si>
+    <t>On-site</t>
+  </si>
+  <si>
+    <t>Skill-exchange</t>
+  </si>
+  <si>
+    <t>Tag4</t>
+  </si>
+  <si>
+    <t>AddDaysInCurrentDateToStart</t>
+  </si>
+  <si>
+    <t>AddDaysInCurrentDateToEnd</t>
+  </si>
+  <si>
+    <t>EditDaysInCurrentDateToStart</t>
+  </si>
+  <si>
+    <t>EditDaysInCurrentDateToEnd</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>CurrentPassword</t>
+  </si>
+  <si>
+    <t>NewPassword</t>
+  </si>
+  <si>
+    <t>Password Changed Successfully</t>
+  </si>
+  <si>
+    <t>NewConfirmPassword</t>
+  </si>
+  <si>
+    <t>Registration successful</t>
+  </si>
+  <si>
+    <t>RegistrationMessage</t>
+  </si>
+  <si>
+    <t>PasswordChangeMessage</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>EarnTarget</t>
+  </si>
+  <si>
+    <t>AvailabilityMessage</t>
+  </si>
+  <si>
+    <t>Availability updated</t>
+  </si>
+  <si>
+    <t>Part Time</t>
+  </si>
+  <si>
+    <t>More than 30hours a week</t>
+  </si>
+  <si>
+    <t>More than $1000 per month</t>
+  </si>
+  <si>
+    <t>DescriptionMessage</t>
+  </si>
+  <si>
+    <t>Description has been saved successfully</t>
+  </si>
+  <si>
+    <t>I like playing drums</t>
+  </si>
+  <si>
+    <t>ProfileDescription</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>SkillMessage</t>
+  </si>
+  <si>
+    <t>Drums</t>
+  </si>
+  <si>
+    <t>Drums has been added to your skills</t>
+  </si>
+  <si>
+    <t>LanguageMessage</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>English has been added to your languages</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>CertifiedFrom</t>
+  </si>
+  <si>
+    <t>CertificateMessage</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>adobe</t>
+  </si>
+  <si>
+    <t>abc has been added to your certification</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>EducationMessage</t>
+  </si>
+  <si>
+    <t>Computers</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>Education has been added</t>
+  </si>
+  <si>
+    <t>ChatMessage</t>
+  </si>
+  <si>
+    <t>MessageToSeller</t>
+  </si>
+  <si>
+    <t>SentRequestMessage</t>
+  </si>
+  <si>
+    <t>Request sent</t>
+  </si>
+  <si>
+    <t>I am interested in your skill</t>
+  </si>
+  <si>
+    <t>Notification updated</t>
+  </si>
+  <si>
+    <t>NotificationMessage</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Declined</t>
+  </si>
+  <si>
+    <t>Withdrawn</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>AcceptReceivedRequest</t>
+  </si>
+  <si>
+    <t>DeclineReceivedRequest</t>
+  </si>
+  <si>
+    <t>WithdrawSentRequest</t>
+  </si>
+  <si>
+    <t>CompleteSentRequest</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Pwd</t>
+  </si>
+  <si>
+    <t>Skill3</t>
+  </si>
+  <si>
+    <t>Skill4</t>
+  </si>
+  <si>
+    <t>SearchSkillToAccept</t>
+  </si>
+  <si>
+    <t>SearchSkillToWithdraw</t>
+  </si>
+  <si>
+    <t>SearchSkillToComplete</t>
+  </si>
+  <si>
+    <t>SearchSkillToDecline</t>
+  </si>
+  <si>
+    <t>Skill5</t>
+  </si>
+  <si>
+    <t>Skill6</t>
+  </si>
+  <si>
+    <t>Testing skill exchange</t>
+  </si>
+  <si>
+    <t>Skill1 has been deleted</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
     <t>Skill1</t>
   </si>
   <si>
-    <t>Test Skill1 Sharing</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Tag1</t>
-  </si>
-  <si>
-    <t>One-off service</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>Tag2</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>EditTitle</t>
-  </si>
-  <si>
-    <t>EditDescription</t>
-  </si>
-  <si>
-    <t>EditCategory</t>
-  </si>
-  <si>
-    <t>EditTags</t>
-  </si>
-  <si>
-    <t>EditServiceType</t>
-  </si>
-  <si>
-    <t>EditLocationType</t>
-  </si>
-  <si>
-    <t>EditSkillTrade</t>
-  </si>
-  <si>
-    <t>EditSkillExchangeTag</t>
-  </si>
-  <si>
-    <t>EditCreditServiceCharge</t>
-  </si>
-  <si>
-    <t>EditActive</t>
-  </si>
-  <si>
-    <t>DeleteMessage</t>
-  </si>
-  <si>
-    <t>Skill2</t>
-  </si>
-  <si>
-    <t>Test Skill2 Sharing</t>
-  </si>
-  <si>
-    <t>Fun &amp; Lifestyle</t>
-  </si>
-  <si>
-    <t>Tag3</t>
-  </si>
-  <si>
-    <t>Hourly basis service</t>
-  </si>
-  <si>
-    <t>On-site</t>
-  </si>
-  <si>
-    <t>Skill-exchange</t>
-  </si>
-  <si>
-    <t>Tag4</t>
-  </si>
-  <si>
-    <t>has been deleted</t>
-  </si>
-  <si>
-    <t>AddDaysInCurrentDateToStart</t>
-  </si>
-  <si>
-    <t>AddDaysInCurrentDateToEnd</t>
-  </si>
-  <si>
-    <t>EditDaysInCurrentDateToStart</t>
-  </si>
-  <si>
-    <t>EditDaysInCurrentDateToEnd</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>ConfirmPassword</t>
-  </si>
-  <si>
-    <t>CurrentPassword</t>
-  </si>
-  <si>
-    <t>NewPassword</t>
-  </si>
-  <si>
-    <t>Password Changed Successfully</t>
-  </si>
-  <si>
-    <t>NewConfirmPassword</t>
-  </si>
-  <si>
-    <t>Registration successful</t>
-  </si>
-  <si>
-    <t>RegistrationMessage</t>
-  </si>
-  <si>
-    <t>PasswordChangeMessage</t>
-  </si>
-  <si>
     <t>mars</t>
   </si>
   <si>
@@ -210,193 +384,7 @@
     <t>mars.test@gmail.com</t>
   </si>
   <si>
-    <t>Availability</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>EarnTarget</t>
-  </si>
-  <si>
-    <t>AvailabilityMessage</t>
-  </si>
-  <si>
-    <t>HoursMessage</t>
-  </si>
-  <si>
-    <t>EarnTargetMessage</t>
-  </si>
-  <si>
-    <t>Availability updated</t>
-  </si>
-  <si>
-    <t>Hours updated</t>
-  </si>
-  <si>
-    <t>Earn Target updated</t>
-  </si>
-  <si>
-    <t>Part Time</t>
-  </si>
-  <si>
-    <t>More than 30hours a week</t>
-  </si>
-  <si>
-    <t>More than $1000 per month</t>
-  </si>
-  <si>
-    <t>DescriptionMessage</t>
-  </si>
-  <si>
-    <t>Description has been saved successfully</t>
-  </si>
-  <si>
-    <t>I like playing drums</t>
-  </si>
-  <si>
-    <t>ProfileDescription</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>SkillMessage</t>
-  </si>
-  <si>
-    <t>Drums</t>
-  </si>
-  <si>
-    <t>Drums has been added to your skills</t>
-  </si>
-  <si>
-    <t>LanguageMessage</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>English has been added to your languages</t>
-  </si>
-  <si>
-    <t>Certificate</t>
-  </si>
-  <si>
-    <t>CertifiedFrom</t>
-  </si>
-  <si>
-    <t>CertificateMessage</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>adobe</t>
-  </si>
-  <si>
-    <t>abc has been added to your certification</t>
-  </si>
-  <si>
-    <t>College</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>EducationMessage</t>
-  </si>
-  <si>
-    <t>Computers</t>
-  </si>
-  <si>
-    <t>KK</t>
-  </si>
-  <si>
-    <t>Education has been added</t>
-  </si>
-  <si>
-    <t>ChatMessage</t>
-  </si>
-  <si>
-    <t>Hello I want to exchange my skill</t>
-  </si>
-  <si>
-    <t>MessageToSeller</t>
-  </si>
-  <si>
-    <t>SentRequestMessage</t>
-  </si>
-  <si>
-    <t>Request sent</t>
-  </si>
-  <si>
-    <t>I am interested in your skill</t>
-  </si>
-  <si>
-    <t>Notification updated</t>
-  </si>
-  <si>
-    <t>NotificationMessage</t>
-  </si>
-  <si>
-    <t>Accepted</t>
-  </si>
-  <si>
-    <t>Declined</t>
-  </si>
-  <si>
-    <t>Withdrawn</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>AcceptReceivedRequest</t>
-  </si>
-  <si>
-    <t>DeclineReceivedRequest</t>
-  </si>
-  <si>
-    <t>WithdrawSentRequest</t>
-  </si>
-  <si>
-    <t>CompleteSentRequest</t>
-  </si>
-  <si>
-    <t>test.tester@gmail.com</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Pwd</t>
-  </si>
-  <si>
-    <t>Skill3</t>
-  </si>
-  <si>
-    <t>Skill4</t>
-  </si>
-  <si>
-    <t>SearchSkillToAccept</t>
-  </si>
-  <si>
-    <t>SearchSkillToWithdraw</t>
-  </si>
-  <si>
-    <t>SearchSkillToComplete</t>
-  </si>
-  <si>
-    <t>SearchSkillToDecline</t>
-  </si>
-  <si>
-    <t>Skill5</t>
-  </si>
-  <si>
-    <t>Skill6</t>
+    <t>marstest.tester@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -779,7 +767,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -793,10 +781,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -805,21 +793,21 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="D2">
         <v>123123</v>
@@ -828,7 +816,7 @@
         <v>123123</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +833,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,16 +843,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -872,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDD637B-99C7-7B42-BAE6-F88E174063E1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -888,27 +877,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B2">
         <v>123123</v>
@@ -923,7 +912,7 @@
         <v>123456</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -931,6 +920,7 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{79E77408-E72F-0B43-82BC-84590347AD6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -938,7 +928,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DEC66E-F359-7849-9BD4-2D798B9625ED}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -987,42 +979,42 @@
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1042,7 +1034,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1059,74 +1051,74 @@
     <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
       </c>
       <c r="I2">
         <v>10</v>
@@ -1141,11 +1133,12 @@
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1167,30 +1160,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1201,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3722FA-74CF-BD4E-9CCF-CBC7308E1A3D}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1212,127 +1205,113 @@
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" t="s">
         <v>83</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" t="s">
-        <v>87</v>
-      </c>
-      <c r="P2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1345,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABAFBA3-8E38-1348-967F-3A970261E0D5}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1359,30 +1338,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1396,7 +1375,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1406,12 +1385,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1424,7 +1403,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1435,21 +1414,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>